--- a/arkanoid.xlsx
+++ b/arkanoid.xlsx
@@ -4,20 +4,34 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Platform" sheetId="1" r:id="rId1"/>
+    <sheet name="Brick" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="3">
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,8 +48,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -48,8 +69,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -57,11 +114,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -72,12 +164,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -600,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:BR20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -916,12 +1059,2986 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="D3:CS29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU21" sqref="AU21:CS29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="2.85546875" style="1"/>
+    <col min="4" max="4" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="70" width="2.85546875" style="1" customWidth="1"/>
+    <col min="71" max="16384" width="2.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:97" ht="15" customHeight="1">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1">
+        <v>8</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10</v>
+      </c>
+      <c r="P3" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>12</v>
+      </c>
+      <c r="R3" s="1">
+        <v>13</v>
+      </c>
+      <c r="S3" s="1">
+        <v>14</v>
+      </c>
+      <c r="T3" s="1">
+        <v>15</v>
+      </c>
+      <c r="U3" s="1">
+        <v>16</v>
+      </c>
+      <c r="V3" s="1">
+        <v>17</v>
+      </c>
+      <c r="W3" s="1">
+        <v>18</v>
+      </c>
+      <c r="X3" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>26</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>29</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+    </row>
+    <row r="4" spans="4:97" ht="15" customHeight="1">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+    </row>
+    <row r="5" spans="4:97" ht="15" customHeight="1">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="6"/>
+    </row>
+    <row r="6" spans="4:97" ht="15" customHeight="1">
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+    </row>
+    <row r="7" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AV7" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16">
+        <v>3</v>
+      </c>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16">
+        <v>4</v>
+      </c>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16">
+        <v>5</v>
+      </c>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16">
+        <v>6</v>
+      </c>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16">
+        <v>7</v>
+      </c>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16">
+        <v>8</v>
+      </c>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16">
+        <v>9</v>
+      </c>
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16">
+        <v>10</v>
+      </c>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16">
+        <v>11</v>
+      </c>
+      <c r="BQ7" s="16"/>
+      <c r="BR7" s="16">
+        <v>12</v>
+      </c>
+      <c r="BS7" s="16"/>
+      <c r="BT7" s="16">
+        <v>13</v>
+      </c>
+      <c r="BU7" s="16"/>
+      <c r="BV7" s="16">
+        <v>14</v>
+      </c>
+      <c r="BW7" s="16"/>
+      <c r="BX7" s="16">
+        <v>15</v>
+      </c>
+      <c r="BY7" s="16"/>
+      <c r="BZ7" s="16">
+        <v>16</v>
+      </c>
+      <c r="CA7" s="16"/>
+      <c r="CB7" s="16">
+        <v>17</v>
+      </c>
+      <c r="CC7" s="16"/>
+      <c r="CD7" s="16">
+        <v>18</v>
+      </c>
+      <c r="CE7" s="16"/>
+      <c r="CF7" s="16">
+        <v>19</v>
+      </c>
+      <c r="CG7" s="16"/>
+      <c r="CH7" s="16">
+        <v>20</v>
+      </c>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16">
+        <v>21</v>
+      </c>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16">
+        <v>22</v>
+      </c>
+      <c r="CM7" s="16"/>
+      <c r="CN7" s="16">
+        <v>23</v>
+      </c>
+      <c r="CO7" s="16"/>
+      <c r="CP7" s="16">
+        <v>24</v>
+      </c>
+      <c r="CQ7" s="16"/>
+      <c r="CR7" s="16">
+        <v>25</v>
+      </c>
+      <c r="CS7" s="16"/>
+    </row>
+    <row r="8" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AS8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="13"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="13"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="13"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="13"/>
+      <c r="BN8" s="12"/>
+      <c r="BO8" s="13"/>
+      <c r="BP8" s="12"/>
+      <c r="BQ8" s="13"/>
+      <c r="BR8" s="12"/>
+      <c r="BS8" s="13"/>
+      <c r="BT8" s="12"/>
+      <c r="BU8" s="13"/>
+      <c r="BV8" s="12"/>
+      <c r="BW8" s="13"/>
+      <c r="BX8" s="12"/>
+      <c r="BY8" s="13"/>
+      <c r="BZ8" s="12"/>
+      <c r="CA8" s="13"/>
+      <c r="CB8" s="12"/>
+      <c r="CC8" s="13"/>
+      <c r="CD8" s="12"/>
+      <c r="CE8" s="13"/>
+      <c r="CF8" s="12"/>
+      <c r="CG8" s="13"/>
+      <c r="CH8" s="12"/>
+      <c r="CI8" s="13"/>
+      <c r="CJ8" s="12"/>
+      <c r="CK8" s="13"/>
+      <c r="CL8" s="12"/>
+      <c r="CM8" s="13"/>
+      <c r="CN8" s="14"/>
+      <c r="CO8" s="15"/>
+      <c r="CP8" s="8"/>
+      <c r="CQ8" s="9"/>
+      <c r="CR8" s="8"/>
+      <c r="CS8" s="9"/>
+    </row>
+    <row r="9" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AS9" s="17">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="12"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="12"/>
+      <c r="BK9" s="13"/>
+      <c r="BL9" s="12"/>
+      <c r="BM9" s="13"/>
+      <c r="BN9" s="12"/>
+      <c r="BO9" s="13"/>
+      <c r="BP9" s="12"/>
+      <c r="BQ9" s="13"/>
+      <c r="BR9" s="12"/>
+      <c r="BS9" s="13"/>
+      <c r="BT9" s="12"/>
+      <c r="BU9" s="13"/>
+      <c r="BV9" s="12"/>
+      <c r="BW9" s="13"/>
+      <c r="BX9" s="12"/>
+      <c r="BY9" s="13"/>
+      <c r="BZ9" s="12"/>
+      <c r="CA9" s="13"/>
+      <c r="CB9" s="12"/>
+      <c r="CC9" s="13"/>
+      <c r="CD9" s="12"/>
+      <c r="CE9" s="13"/>
+      <c r="CF9" s="12"/>
+      <c r="CG9" s="13"/>
+      <c r="CH9" s="12"/>
+      <c r="CI9" s="13"/>
+      <c r="CJ9" s="12"/>
+      <c r="CK9" s="13"/>
+      <c r="CL9" s="12"/>
+      <c r="CM9" s="13"/>
+      <c r="CN9" s="14"/>
+      <c r="CO9" s="15"/>
+      <c r="CP9" s="8"/>
+      <c r="CQ9" s="9"/>
+      <c r="CR9" s="8"/>
+      <c r="CS9" s="9"/>
+    </row>
+    <row r="10" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AS10" s="17">
+        <v>3</v>
+      </c>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="18"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="13"/>
+      <c r="BH10" s="12"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="12"/>
+      <c r="BK10" s="13"/>
+      <c r="BL10" s="12"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="12"/>
+      <c r="BO10" s="13"/>
+      <c r="BP10" s="12"/>
+      <c r="BQ10" s="13"/>
+      <c r="BR10" s="12"/>
+      <c r="BS10" s="13"/>
+      <c r="BT10" s="12"/>
+      <c r="BU10" s="13"/>
+      <c r="BV10" s="12"/>
+      <c r="BW10" s="13"/>
+      <c r="BX10" s="12"/>
+      <c r="BY10" s="13"/>
+      <c r="BZ10" s="12"/>
+      <c r="CA10" s="13"/>
+      <c r="CB10" s="12"/>
+      <c r="CC10" s="13"/>
+      <c r="CD10" s="12"/>
+      <c r="CE10" s="13"/>
+      <c r="CF10" s="12"/>
+      <c r="CG10" s="13"/>
+      <c r="CH10" s="12"/>
+      <c r="CI10" s="13"/>
+      <c r="CJ10" s="12"/>
+      <c r="CK10" s="13"/>
+      <c r="CL10" s="12"/>
+      <c r="CM10" s="13"/>
+      <c r="CN10" s="14"/>
+      <c r="CO10" s="15"/>
+      <c r="CP10" s="8"/>
+      <c r="CQ10" s="9"/>
+    </row>
+    <row r="11" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="D11" s="4">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AS11" s="17">
+        <v>4</v>
+      </c>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="18"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="12"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="12"/>
+      <c r="BK11" s="13"/>
+      <c r="BL11" s="12"/>
+      <c r="BM11" s="13"/>
+      <c r="BN11" s="12"/>
+      <c r="BO11" s="13"/>
+      <c r="BP11" s="12"/>
+      <c r="BQ11" s="13"/>
+      <c r="BR11" s="12"/>
+      <c r="BS11" s="13"/>
+      <c r="BT11" s="12"/>
+      <c r="BU11" s="13"/>
+      <c r="BV11" s="12"/>
+      <c r="BW11" s="13"/>
+      <c r="BX11" s="12"/>
+      <c r="BY11" s="13"/>
+      <c r="BZ11" s="12"/>
+      <c r="CA11" s="13"/>
+      <c r="CB11" s="12"/>
+      <c r="CC11" s="13"/>
+      <c r="CD11" s="12"/>
+      <c r="CE11" s="13"/>
+      <c r="CF11" s="12"/>
+      <c r="CG11" s="13"/>
+      <c r="CH11" s="12"/>
+      <c r="CI11" s="13"/>
+      <c r="CJ11" s="12"/>
+      <c r="CK11" s="13"/>
+      <c r="CL11" s="12"/>
+      <c r="CM11" s="13"/>
+      <c r="CN11" s="10"/>
+      <c r="CO11" s="11"/>
+      <c r="CP11" s="8"/>
+      <c r="CQ11" s="9"/>
+    </row>
+    <row r="12" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AS12" s="17">
+        <v>5</v>
+      </c>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="18"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="12"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="12"/>
+      <c r="BK12" s="13"/>
+      <c r="BL12" s="12"/>
+      <c r="BM12" s="13"/>
+      <c r="BN12" s="12"/>
+      <c r="BO12" s="13"/>
+      <c r="BP12" s="12"/>
+      <c r="BQ12" s="13"/>
+      <c r="BR12" s="12"/>
+      <c r="BS12" s="13"/>
+      <c r="BT12" s="12"/>
+      <c r="BU12" s="13"/>
+      <c r="BV12" s="12"/>
+      <c r="BW12" s="13"/>
+      <c r="BX12" s="12"/>
+      <c r="BY12" s="13"/>
+      <c r="BZ12" s="12"/>
+      <c r="CA12" s="13"/>
+      <c r="CB12" s="12"/>
+      <c r="CC12" s="13"/>
+      <c r="CD12" s="12"/>
+      <c r="CE12" s="13"/>
+      <c r="CF12" s="12"/>
+      <c r="CG12" s="13"/>
+      <c r="CH12" s="12"/>
+      <c r="CI12" s="13"/>
+      <c r="CJ12" s="12"/>
+      <c r="CK12" s="13"/>
+      <c r="CL12" s="12"/>
+      <c r="CM12" s="13"/>
+      <c r="CN12" s="10"/>
+      <c r="CO12" s="11"/>
+      <c r="CP12" s="8"/>
+      <c r="CQ12" s="9"/>
+    </row>
+    <row r="13" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AS13" s="17">
+        <v>6</v>
+      </c>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="18"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="13"/>
+      <c r="BH13" s="12"/>
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="12"/>
+      <c r="BK13" s="13"/>
+      <c r="BL13" s="12"/>
+      <c r="BM13" s="13"/>
+      <c r="BN13" s="12"/>
+      <c r="BO13" s="13"/>
+      <c r="BP13" s="12"/>
+      <c r="BQ13" s="13"/>
+      <c r="BR13" s="12"/>
+      <c r="BS13" s="13"/>
+      <c r="BT13" s="12"/>
+      <c r="BU13" s="13"/>
+      <c r="BV13" s="12"/>
+      <c r="BW13" s="13"/>
+      <c r="BX13" s="12"/>
+      <c r="BY13" s="13"/>
+      <c r="BZ13" s="12"/>
+      <c r="CA13" s="13"/>
+      <c r="CB13" s="12"/>
+      <c r="CC13" s="13"/>
+      <c r="CD13" s="12"/>
+      <c r="CE13" s="13"/>
+      <c r="CF13" s="12"/>
+      <c r="CG13" s="13"/>
+      <c r="CH13" s="12"/>
+      <c r="CI13" s="13"/>
+      <c r="CJ13" s="12"/>
+      <c r="CK13" s="13"/>
+      <c r="CL13" s="12"/>
+      <c r="CM13" s="13"/>
+      <c r="CN13" s="10"/>
+      <c r="CO13" s="11"/>
+      <c r="CP13" s="8"/>
+      <c r="CQ13" s="9"/>
+    </row>
+    <row r="14" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AS14" s="17">
+        <v>7</v>
+      </c>
+      <c r="AT14" s="17"/>
+      <c r="AU14" s="18"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="11"/>
+      <c r="BF14" s="10"/>
+      <c r="BG14" s="11"/>
+      <c r="BH14" s="10"/>
+      <c r="BI14" s="11"/>
+      <c r="BJ14" s="10"/>
+      <c r="BK14" s="11"/>
+      <c r="BL14" s="10"/>
+      <c r="BM14" s="11"/>
+      <c r="BN14" s="10"/>
+      <c r="BO14" s="11"/>
+      <c r="BP14" s="10"/>
+      <c r="BQ14" s="11"/>
+      <c r="BR14" s="10"/>
+      <c r="BS14" s="11"/>
+      <c r="BT14" s="10"/>
+      <c r="BU14" s="11"/>
+      <c r="BV14" s="10"/>
+      <c r="BW14" s="11"/>
+      <c r="BX14" s="10"/>
+      <c r="BY14" s="11"/>
+      <c r="BZ14" s="10"/>
+      <c r="CA14" s="11"/>
+      <c r="CB14" s="10"/>
+      <c r="CC14" s="11"/>
+      <c r="CD14" s="10"/>
+      <c r="CE14" s="11"/>
+      <c r="CF14" s="10"/>
+      <c r="CG14" s="11"/>
+      <c r="CH14" s="10"/>
+      <c r="CI14" s="11"/>
+      <c r="CJ14" s="10"/>
+      <c r="CK14" s="11"/>
+      <c r="CL14" s="10"/>
+      <c r="CM14" s="11"/>
+      <c r="CN14" s="8"/>
+      <c r="CO14" s="9"/>
+    </row>
+    <row r="15" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="D15" s="4">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AS15" s="17">
+        <v>8</v>
+      </c>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="18"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="11"/>
+      <c r="BF15" s="10"/>
+      <c r="BG15" s="11"/>
+      <c r="BH15" s="10"/>
+      <c r="BI15" s="11"/>
+      <c r="BJ15" s="10"/>
+      <c r="BK15" s="11"/>
+      <c r="BL15" s="10"/>
+      <c r="BM15" s="11"/>
+      <c r="BN15" s="10"/>
+      <c r="BO15" s="11"/>
+      <c r="BP15" s="10"/>
+      <c r="BQ15" s="11"/>
+      <c r="BR15" s="10"/>
+      <c r="BS15" s="11"/>
+      <c r="BT15" s="10"/>
+      <c r="BU15" s="11"/>
+      <c r="BV15" s="10"/>
+      <c r="BW15" s="11"/>
+      <c r="BX15" s="10"/>
+      <c r="BY15" s="11"/>
+      <c r="BZ15" s="10"/>
+      <c r="CA15" s="11"/>
+      <c r="CB15" s="10"/>
+      <c r="CC15" s="11"/>
+      <c r="CD15" s="10"/>
+      <c r="CE15" s="11"/>
+      <c r="CF15" s="10"/>
+      <c r="CG15" s="11"/>
+      <c r="CH15" s="10"/>
+      <c r="CI15" s="11"/>
+      <c r="CJ15" s="10"/>
+      <c r="CK15" s="11"/>
+      <c r="CL15" s="10"/>
+      <c r="CM15" s="11"/>
+      <c r="CN15" s="8"/>
+      <c r="CO15" s="9"/>
+    </row>
+    <row r="16" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="D16" s="4">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AS16" s="17">
+        <v>9</v>
+      </c>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="18"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="8"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="8"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="8"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="8"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="8"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="8"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="8"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="8"/>
+      <c r="BQ16" s="9"/>
+      <c r="BR16" s="8"/>
+      <c r="BS16" s="9"/>
+      <c r="BT16" s="8"/>
+      <c r="BU16" s="9"/>
+      <c r="BV16" s="8"/>
+      <c r="BW16" s="9"/>
+      <c r="BX16" s="8"/>
+      <c r="BY16" s="9"/>
+      <c r="BZ16" s="8"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="8"/>
+      <c r="CC16" s="9"/>
+      <c r="CD16" s="8"/>
+      <c r="CE16" s="9"/>
+      <c r="CF16" s="8"/>
+      <c r="CG16" s="9"/>
+      <c r="CH16" s="8"/>
+      <c r="CI16" s="9"/>
+      <c r="CJ16" s="8"/>
+      <c r="CK16" s="9"/>
+      <c r="CL16" s="8"/>
+      <c r="CM16" s="9"/>
+      <c r="CN16" s="8"/>
+      <c r="CO16" s="9"/>
+    </row>
+    <row r="17" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="D17" s="4">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AS17" s="17">
+        <v>10</v>
+      </c>
+      <c r="AT17" s="17"/>
+      <c r="AU17" s="18"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="8"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="8"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="8"/>
+      <c r="BG17" s="9"/>
+      <c r="BH17" s="8"/>
+      <c r="BI17" s="9"/>
+      <c r="BJ17" s="8"/>
+      <c r="BK17" s="9"/>
+      <c r="BL17" s="8"/>
+      <c r="BM17" s="9"/>
+      <c r="BN17" s="8"/>
+      <c r="BO17" s="9"/>
+      <c r="BP17" s="8"/>
+      <c r="BQ17" s="9"/>
+      <c r="BR17" s="8"/>
+      <c r="BS17" s="9"/>
+      <c r="BT17" s="8"/>
+      <c r="BU17" s="9"/>
+      <c r="BV17" s="8"/>
+      <c r="BW17" s="9"/>
+      <c r="BX17" s="8"/>
+      <c r="BY17" s="9"/>
+      <c r="BZ17" s="8"/>
+      <c r="CA17" s="9"/>
+      <c r="CB17" s="8"/>
+      <c r="CC17" s="9"/>
+      <c r="CD17" s="8"/>
+      <c r="CE17" s="9"/>
+      <c r="CF17" s="8"/>
+      <c r="CG17" s="9"/>
+      <c r="CH17" s="8"/>
+      <c r="CI17" s="9"/>
+      <c r="CJ17" s="8"/>
+      <c r="CK17" s="9"/>
+      <c r="CL17" s="8"/>
+      <c r="CM17" s="9"/>
+      <c r="CN17" s="8"/>
+      <c r="CO17" s="9"/>
+    </row>
+    <row r="18" spans="4:97" ht="15" customHeight="1">
+      <c r="D18" s="4">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+    </row>
+    <row r="19" spans="4:97" ht="15" customHeight="1">
+      <c r="D19" s="4">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+    </row>
+    <row r="20" spans="4:97" ht="15" customHeight="1">
+      <c r="E20" s="2"/>
+      <c r="AS20" s="17">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN20" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:97">
+      <c r="AS21" s="17">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN21" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR21" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:97">
+      <c r="AS22" s="17">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN22" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP22" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:97">
+      <c r="AS23" s="17">
+        <v>4</v>
+      </c>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN23" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:97">
+      <c r="AS24" s="17">
+        <v>5</v>
+      </c>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:97">
+      <c r="AS25" s="17">
+        <v>6</v>
+      </c>
+      <c r="AT25" s="17"/>
+      <c r="AU25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN25" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:97">
+      <c r="AS26" s="17">
+        <v>7</v>
+      </c>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB26" s="1">
+        <v>2</v>
+      </c>
+      <c r="CC26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD26" s="1">
+        <v>2</v>
+      </c>
+      <c r="CE26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF26" s="1">
+        <v>2</v>
+      </c>
+      <c r="CG26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH26" s="1">
+        <v>2</v>
+      </c>
+      <c r="CI26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ26" s="1">
+        <v>2</v>
+      </c>
+      <c r="CK26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL26" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN26" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:97">
+      <c r="AS27" s="17">
+        <v>8</v>
+      </c>
+      <c r="AT27" s="17"/>
+      <c r="AU27" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CC27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CE27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CG27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CI27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CK27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN27" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:97">
+      <c r="AS28" s="17">
+        <v>9</v>
+      </c>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB28" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD28" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF28" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH28" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL28" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN28" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:97">
+      <c r="AS29" s="17">
+        <v>10</v>
+      </c>
+      <c r="AT29" s="17"/>
+      <c r="AU29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CM29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR29" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="AS27:AT27"/>
+    <mergeCell ref="AS28:AT28"/>
+    <mergeCell ref="AS29:AT29"/>
+    <mergeCell ref="AS21:AT21"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="AS23:AT23"/>
+    <mergeCell ref="AS24:AT24"/>
+    <mergeCell ref="AS25:AT25"/>
+    <mergeCell ref="AS26:AT26"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AS15:AT15"/>
+    <mergeCell ref="AS16:AT16"/>
+    <mergeCell ref="AS17:AT17"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="CR7:CS7"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="CP7:CQ7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="BH7:BI7"/>
+    <mergeCell ref="BJ7:BK7"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BB7:BC7"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BF7:BG7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/arkanoid.xlsx
+++ b/arkanoid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="3">
   <si>
     <t>,</t>
   </si>
@@ -1059,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:CS29"/>
+  <dimension ref="D3:CA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU21" sqref="AU21:CS29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CK26" sqref="CK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
@@ -1073,7 +1073,7 @@
     <col min="71" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:97" ht="15" customHeight="1">
+    <row r="3" spans="4:79" ht="15" customHeight="1">
       <c r="E3" s="1">
         <v>0</v>
       </c>
@@ -1206,7 +1206,7 @@
       <c r="BR3" s="2"/>
       <c r="BS3" s="2"/>
     </row>
-    <row r="4" spans="4:97" ht="15" customHeight="1">
+    <row r="4" spans="4:79" ht="15" customHeight="1">
       <c r="D4" s="4">
         <v>0</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="4:97" ht="15" customHeight="1">
+    <row r="5" spans="4:79" ht="15" customHeight="1">
       <c r="D5" s="4">
         <v>1</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="4:97" ht="15" customHeight="1">
+    <row r="6" spans="4:79" ht="15" customHeight="1">
       <c r="D6" s="4">
         <v>2</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
     </row>
-    <row r="7" spans="4:97" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D7" s="4">
         <v>3</v>
       </c>
@@ -1417,44 +1417,8 @@
         <v>16</v>
       </c>
       <c r="CA7" s="16"/>
-      <c r="CB7" s="16">
-        <v>17</v>
-      </c>
-      <c r="CC7" s="16"/>
-      <c r="CD7" s="16">
-        <v>18</v>
-      </c>
-      <c r="CE7" s="16"/>
-      <c r="CF7" s="16">
-        <v>19</v>
-      </c>
-      <c r="CG7" s="16"/>
-      <c r="CH7" s="16">
-        <v>20</v>
-      </c>
-      <c r="CI7" s="16"/>
-      <c r="CJ7" s="16">
-        <v>21</v>
-      </c>
-      <c r="CK7" s="16"/>
-      <c r="CL7" s="16">
-        <v>22</v>
-      </c>
-      <c r="CM7" s="16"/>
-      <c r="CN7" s="16">
-        <v>23</v>
-      </c>
-      <c r="CO7" s="16"/>
-      <c r="CP7" s="16">
-        <v>24</v>
-      </c>
-      <c r="CQ7" s="16"/>
-      <c r="CR7" s="16">
-        <v>25</v>
-      </c>
-      <c r="CS7" s="16"/>
-    </row>
-    <row r="8" spans="4:97" ht="15" customHeight="1" thickBot="1">
+    </row>
+    <row r="8" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D8" s="4">
         <v>4</v>
       </c>
@@ -1521,32 +1485,14 @@
       <c r="BS8" s="13"/>
       <c r="BT8" s="12"/>
       <c r="BU8" s="13"/>
-      <c r="BV8" s="12"/>
-      <c r="BW8" s="13"/>
-      <c r="BX8" s="12"/>
-      <c r="BY8" s="13"/>
-      <c r="BZ8" s="12"/>
-      <c r="CA8" s="13"/>
-      <c r="CB8" s="12"/>
-      <c r="CC8" s="13"/>
-      <c r="CD8" s="12"/>
-      <c r="CE8" s="13"/>
-      <c r="CF8" s="12"/>
-      <c r="CG8" s="13"/>
-      <c r="CH8" s="12"/>
-      <c r="CI8" s="13"/>
-      <c r="CJ8" s="12"/>
-      <c r="CK8" s="13"/>
-      <c r="CL8" s="12"/>
-      <c r="CM8" s="13"/>
-      <c r="CN8" s="14"/>
-      <c r="CO8" s="15"/>
-      <c r="CP8" s="8"/>
-      <c r="CQ8" s="9"/>
-      <c r="CR8" s="8"/>
-      <c r="CS8" s="9"/>
-    </row>
-    <row r="9" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="15"/>
+      <c r="BX8" s="8"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="8"/>
+      <c r="CA8" s="9"/>
+    </row>
+    <row r="9" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D9" s="4">
         <v>5</v>
       </c>
@@ -1613,32 +1559,14 @@
       <c r="BS9" s="13"/>
       <c r="BT9" s="12"/>
       <c r="BU9" s="13"/>
-      <c r="BV9" s="12"/>
-      <c r="BW9" s="13"/>
-      <c r="BX9" s="12"/>
-      <c r="BY9" s="13"/>
-      <c r="BZ9" s="12"/>
-      <c r="CA9" s="13"/>
-      <c r="CB9" s="12"/>
-      <c r="CC9" s="13"/>
-      <c r="CD9" s="12"/>
-      <c r="CE9" s="13"/>
-      <c r="CF9" s="12"/>
-      <c r="CG9" s="13"/>
-      <c r="CH9" s="12"/>
-      <c r="CI9" s="13"/>
-      <c r="CJ9" s="12"/>
-      <c r="CK9" s="13"/>
-      <c r="CL9" s="12"/>
-      <c r="CM9" s="13"/>
-      <c r="CN9" s="14"/>
-      <c r="CO9" s="15"/>
-      <c r="CP9" s="8"/>
-      <c r="CQ9" s="9"/>
-      <c r="CR9" s="8"/>
-      <c r="CS9" s="9"/>
-    </row>
-    <row r="10" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="BV9" s="14"/>
+      <c r="BW9" s="15"/>
+      <c r="BX9" s="8"/>
+      <c r="BY9" s="9"/>
+      <c r="BZ9" s="8"/>
+      <c r="CA9" s="9"/>
+    </row>
+    <row r="10" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D10" s="4">
         <v>6</v>
       </c>
@@ -1703,30 +1631,12 @@
       <c r="BS10" s="13"/>
       <c r="BT10" s="12"/>
       <c r="BU10" s="13"/>
-      <c r="BV10" s="12"/>
-      <c r="BW10" s="13"/>
-      <c r="BX10" s="12"/>
-      <c r="BY10" s="13"/>
-      <c r="BZ10" s="12"/>
-      <c r="CA10" s="13"/>
-      <c r="CB10" s="12"/>
-      <c r="CC10" s="13"/>
-      <c r="CD10" s="12"/>
-      <c r="CE10" s="13"/>
-      <c r="CF10" s="12"/>
-      <c r="CG10" s="13"/>
-      <c r="CH10" s="12"/>
-      <c r="CI10" s="13"/>
-      <c r="CJ10" s="12"/>
-      <c r="CK10" s="13"/>
-      <c r="CL10" s="12"/>
-      <c r="CM10" s="13"/>
-      <c r="CN10" s="14"/>
-      <c r="CO10" s="15"/>
-      <c r="CP10" s="8"/>
-      <c r="CQ10" s="9"/>
-    </row>
-    <row r="11" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="BV10" s="14"/>
+      <c r="BW10" s="15"/>
+      <c r="BX10" s="8"/>
+      <c r="BY10" s="9"/>
+    </row>
+    <row r="11" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D11" s="4">
         <v>7</v>
       </c>
@@ -1791,30 +1701,12 @@
       <c r="BS11" s="13"/>
       <c r="BT11" s="12"/>
       <c r="BU11" s="13"/>
-      <c r="BV11" s="12"/>
-      <c r="BW11" s="13"/>
-      <c r="BX11" s="12"/>
-      <c r="BY11" s="13"/>
-      <c r="BZ11" s="12"/>
-      <c r="CA11" s="13"/>
-      <c r="CB11" s="12"/>
-      <c r="CC11" s="13"/>
-      <c r="CD11" s="12"/>
-      <c r="CE11" s="13"/>
-      <c r="CF11" s="12"/>
-      <c r="CG11" s="13"/>
-      <c r="CH11" s="12"/>
-      <c r="CI11" s="13"/>
-      <c r="CJ11" s="12"/>
-      <c r="CK11" s="13"/>
-      <c r="CL11" s="12"/>
-      <c r="CM11" s="13"/>
-      <c r="CN11" s="10"/>
-      <c r="CO11" s="11"/>
-      <c r="CP11" s="8"/>
-      <c r="CQ11" s="9"/>
-    </row>
-    <row r="12" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="BV11" s="10"/>
+      <c r="BW11" s="11"/>
+      <c r="BX11" s="8"/>
+      <c r="BY11" s="9"/>
+    </row>
+    <row r="12" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D12" s="4">
         <v>8</v>
       </c>
@@ -1879,30 +1771,12 @@
       <c r="BS12" s="13"/>
       <c r="BT12" s="12"/>
       <c r="BU12" s="13"/>
-      <c r="BV12" s="12"/>
-      <c r="BW12" s="13"/>
-      <c r="BX12" s="12"/>
-      <c r="BY12" s="13"/>
-      <c r="BZ12" s="12"/>
-      <c r="CA12" s="13"/>
-      <c r="CB12" s="12"/>
-      <c r="CC12" s="13"/>
-      <c r="CD12" s="12"/>
-      <c r="CE12" s="13"/>
-      <c r="CF12" s="12"/>
-      <c r="CG12" s="13"/>
-      <c r="CH12" s="12"/>
-      <c r="CI12" s="13"/>
-      <c r="CJ12" s="12"/>
-      <c r="CK12" s="13"/>
-      <c r="CL12" s="12"/>
-      <c r="CM12" s="13"/>
-      <c r="CN12" s="10"/>
-      <c r="CO12" s="11"/>
-      <c r="CP12" s="8"/>
-      <c r="CQ12" s="9"/>
-    </row>
-    <row r="13" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="BV12" s="10"/>
+      <c r="BW12" s="11"/>
+      <c r="BX12" s="8"/>
+      <c r="BY12" s="9"/>
+    </row>
+    <row r="13" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D13" s="4">
         <v>9</v>
       </c>
@@ -1967,30 +1841,12 @@
       <c r="BS13" s="13"/>
       <c r="BT13" s="12"/>
       <c r="BU13" s="13"/>
-      <c r="BV13" s="12"/>
-      <c r="BW13" s="13"/>
-      <c r="BX13" s="12"/>
-      <c r="BY13" s="13"/>
-      <c r="BZ13" s="12"/>
-      <c r="CA13" s="13"/>
-      <c r="CB13" s="12"/>
-      <c r="CC13" s="13"/>
-      <c r="CD13" s="12"/>
-      <c r="CE13" s="13"/>
-      <c r="CF13" s="12"/>
-      <c r="CG13" s="13"/>
-      <c r="CH13" s="12"/>
-      <c r="CI13" s="13"/>
-      <c r="CJ13" s="12"/>
-      <c r="CK13" s="13"/>
-      <c r="CL13" s="12"/>
-      <c r="CM13" s="13"/>
-      <c r="CN13" s="10"/>
-      <c r="CO13" s="11"/>
-      <c r="CP13" s="8"/>
-      <c r="CQ13" s="9"/>
-    </row>
-    <row r="14" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="BV13" s="10"/>
+      <c r="BW13" s="11"/>
+      <c r="BX13" s="8"/>
+      <c r="BY13" s="9"/>
+    </row>
+    <row r="14" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D14" s="4">
         <v>10</v>
       </c>
@@ -2053,28 +1909,10 @@
       <c r="BS14" s="11"/>
       <c r="BT14" s="10"/>
       <c r="BU14" s="11"/>
-      <c r="BV14" s="10"/>
-      <c r="BW14" s="11"/>
-      <c r="BX14" s="10"/>
-      <c r="BY14" s="11"/>
-      <c r="BZ14" s="10"/>
-      <c r="CA14" s="11"/>
-      <c r="CB14" s="10"/>
-      <c r="CC14" s="11"/>
-      <c r="CD14" s="10"/>
-      <c r="CE14" s="11"/>
-      <c r="CF14" s="10"/>
-      <c r="CG14" s="11"/>
-      <c r="CH14" s="10"/>
-      <c r="CI14" s="11"/>
-      <c r="CJ14" s="10"/>
-      <c r="CK14" s="11"/>
-      <c r="CL14" s="10"/>
-      <c r="CM14" s="11"/>
-      <c r="CN14" s="8"/>
-      <c r="CO14" s="9"/>
-    </row>
-    <row r="15" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="BV14" s="8"/>
+      <c r="BW14" s="9"/>
+    </row>
+    <row r="15" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D15" s="4">
         <v>11</v>
       </c>
@@ -2137,28 +1975,10 @@
       <c r="BS15" s="11"/>
       <c r="BT15" s="10"/>
       <c r="BU15" s="11"/>
-      <c r="BV15" s="10"/>
-      <c r="BW15" s="11"/>
-      <c r="BX15" s="10"/>
-      <c r="BY15" s="11"/>
-      <c r="BZ15" s="10"/>
-      <c r="CA15" s="11"/>
-      <c r="CB15" s="10"/>
-      <c r="CC15" s="11"/>
-      <c r="CD15" s="10"/>
-      <c r="CE15" s="11"/>
-      <c r="CF15" s="10"/>
-      <c r="CG15" s="11"/>
-      <c r="CH15" s="10"/>
-      <c r="CI15" s="11"/>
-      <c r="CJ15" s="10"/>
-      <c r="CK15" s="11"/>
-      <c r="CL15" s="10"/>
-      <c r="CM15" s="11"/>
-      <c r="CN15" s="8"/>
-      <c r="CO15" s="9"/>
-    </row>
-    <row r="16" spans="4:97" ht="15" customHeight="1" thickBot="1">
+      <c r="BV15" s="8"/>
+      <c r="BW15" s="9"/>
+    </row>
+    <row r="16" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D16" s="4">
         <v>12</v>
       </c>
@@ -2223,26 +2043,8 @@
       <c r="BU16" s="9"/>
       <c r="BV16" s="8"/>
       <c r="BW16" s="9"/>
-      <c r="BX16" s="8"/>
-      <c r="BY16" s="9"/>
-      <c r="BZ16" s="8"/>
-      <c r="CA16" s="9"/>
-      <c r="CB16" s="8"/>
-      <c r="CC16" s="9"/>
-      <c r="CD16" s="8"/>
-      <c r="CE16" s="9"/>
-      <c r="CF16" s="8"/>
-      <c r="CG16" s="9"/>
-      <c r="CH16" s="8"/>
-      <c r="CI16" s="9"/>
-      <c r="CJ16" s="8"/>
-      <c r="CK16" s="9"/>
-      <c r="CL16" s="8"/>
-      <c r="CM16" s="9"/>
-      <c r="CN16" s="8"/>
-      <c r="CO16" s="9"/>
-    </row>
-    <row r="17" spans="4:97" ht="15" customHeight="1" thickBot="1">
+    </row>
+    <row r="17" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D17" s="4">
         <v>13</v>
       </c>
@@ -2307,26 +2109,8 @@
       <c r="BU17" s="9"/>
       <c r="BV17" s="8"/>
       <c r="BW17" s="9"/>
-      <c r="BX17" s="8"/>
-      <c r="BY17" s="9"/>
-      <c r="BZ17" s="8"/>
-      <c r="CA17" s="9"/>
-      <c r="CB17" s="8"/>
-      <c r="CC17" s="9"/>
-      <c r="CD17" s="8"/>
-      <c r="CE17" s="9"/>
-      <c r="CF17" s="8"/>
-      <c r="CG17" s="9"/>
-      <c r="CH17" s="8"/>
-      <c r="CI17" s="9"/>
-      <c r="CJ17" s="8"/>
-      <c r="CK17" s="9"/>
-      <c r="CL17" s="8"/>
-      <c r="CM17" s="9"/>
-      <c r="CN17" s="8"/>
-      <c r="CO17" s="9"/>
-    </row>
-    <row r="18" spans="4:97" ht="15" customHeight="1">
+    </row>
+    <row r="18" spans="4:79" ht="15" customHeight="1">
       <c r="D18" s="4">
         <v>14</v>
       </c>
@@ -2363,7 +2147,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="19" spans="4:97" ht="15" customHeight="1">
+    <row r="19" spans="4:79" ht="15" customHeight="1">
       <c r="D19" s="4">
         <v>15</v>
       </c>
@@ -2400,7 +2184,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
     </row>
-    <row r="20" spans="4:97" ht="15" customHeight="1">
+    <row r="20" spans="4:79" ht="15" customHeight="1">
       <c r="E20" s="2"/>
       <c r="AS20" s="17">
         <v>1</v>
@@ -2488,79 +2272,25 @@
         <v>0</v>
       </c>
       <c r="BV20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BZ20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB20" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD20" s="1">
-        <v>3</v>
-      </c>
-      <c r="CE20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF20" s="1">
-        <v>3</v>
-      </c>
-      <c r="CG20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH20" s="1">
-        <v>3</v>
-      </c>
-      <c r="CI20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ20" s="1">
-        <v>3</v>
-      </c>
-      <c r="CK20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL20" s="1">
-        <v>3</v>
-      </c>
-      <c r="CM20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN20" s="1">
-        <v>2</v>
-      </c>
-      <c r="CO20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP20" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR20" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:79">
       <c r="AS21" s="17">
         <v>2</v>
       </c>
@@ -2647,79 +2377,25 @@
         <v>0</v>
       </c>
       <c r="BV21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BZ21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB21" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD21" s="1">
-        <v>3</v>
-      </c>
-      <c r="CE21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF21" s="1">
-        <v>3</v>
-      </c>
-      <c r="CG21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH21" s="1">
-        <v>3</v>
-      </c>
-      <c r="CI21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ21" s="1">
-        <v>3</v>
-      </c>
-      <c r="CK21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL21" s="1">
-        <v>3</v>
-      </c>
-      <c r="CM21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN21" s="1">
-        <v>2</v>
-      </c>
-      <c r="CO21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP21" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR21" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:79">
       <c r="AS22" s="17">
         <v>3</v>
       </c>
@@ -2806,79 +2482,25 @@
         <v>0</v>
       </c>
       <c r="BV22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BZ22" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB22" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD22" s="1">
-        <v>3</v>
-      </c>
-      <c r="CE22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF22" s="1">
-        <v>3</v>
-      </c>
-      <c r="CG22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH22" s="1">
-        <v>3</v>
-      </c>
-      <c r="CI22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ22" s="1">
-        <v>3</v>
-      </c>
-      <c r="CK22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL22" s="1">
-        <v>3</v>
-      </c>
-      <c r="CM22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN22" s="1">
-        <v>2</v>
-      </c>
-      <c r="CO22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP22" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="4:97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:79">
       <c r="AS23" s="17">
         <v>4</v>
       </c>
@@ -2965,79 +2587,25 @@
         <v>0</v>
       </c>
       <c r="BV23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BZ23" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB23" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD23" s="1">
-        <v>3</v>
-      </c>
-      <c r="CE23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF23" s="1">
-        <v>3</v>
-      </c>
-      <c r="CG23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH23" s="1">
-        <v>3</v>
-      </c>
-      <c r="CI23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ23" s="1">
-        <v>3</v>
-      </c>
-      <c r="CK23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL23" s="1">
-        <v>3</v>
-      </c>
-      <c r="CM23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN23" s="1">
-        <v>2</v>
-      </c>
-      <c r="CO23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP23" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:79">
       <c r="AS24" s="17">
         <v>5</v>
       </c>
@@ -3124,79 +2692,25 @@
         <v>0</v>
       </c>
       <c r="BV24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BZ24" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB24" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD24" s="1">
-        <v>3</v>
-      </c>
-      <c r="CE24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF24" s="1">
-        <v>3</v>
-      </c>
-      <c r="CG24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH24" s="1">
-        <v>3</v>
-      </c>
-      <c r="CI24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ24" s="1">
-        <v>3</v>
-      </c>
-      <c r="CK24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL24" s="1">
-        <v>3</v>
-      </c>
-      <c r="CM24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN24" s="1">
-        <v>2</v>
-      </c>
-      <c r="CO24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:79">
       <c r="AS25" s="17">
         <v>6</v>
       </c>
@@ -3283,79 +2797,25 @@
         <v>0</v>
       </c>
       <c r="BV25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BZ25" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB25" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD25" s="1">
-        <v>3</v>
-      </c>
-      <c r="CE25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF25" s="1">
-        <v>3</v>
-      </c>
-      <c r="CG25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH25" s="1">
-        <v>3</v>
-      </c>
-      <c r="CI25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ25" s="1">
-        <v>3</v>
-      </c>
-      <c r="CK25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL25" s="1">
-        <v>3</v>
-      </c>
-      <c r="CM25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN25" s="1">
-        <v>2</v>
-      </c>
-      <c r="CO25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:79">
       <c r="AS26" s="17">
         <v>7</v>
       </c>
@@ -3442,79 +2902,25 @@
         <v>0</v>
       </c>
       <c r="BV26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB26" s="1">
-        <v>2</v>
-      </c>
-      <c r="CC26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD26" s="1">
-        <v>2</v>
-      </c>
-      <c r="CE26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF26" s="1">
-        <v>2</v>
-      </c>
-      <c r="CG26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH26" s="1">
-        <v>2</v>
-      </c>
-      <c r="CI26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ26" s="1">
-        <v>2</v>
-      </c>
-      <c r="CK26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL26" s="1">
-        <v>2</v>
-      </c>
-      <c r="CM26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN26" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS26" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:79">
       <c r="AS27" s="17">
         <v>8</v>
       </c>
@@ -3601,79 +3007,25 @@
         <v>0</v>
       </c>
       <c r="BV27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BZ27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB27" s="1">
-        <v>2</v>
-      </c>
-      <c r="CC27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD27" s="1">
-        <v>2</v>
-      </c>
-      <c r="CE27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF27" s="1">
-        <v>2</v>
-      </c>
-      <c r="CG27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH27" s="1">
-        <v>2</v>
-      </c>
-      <c r="CI27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ27" s="1">
-        <v>2</v>
-      </c>
-      <c r="CK27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL27" s="1">
-        <v>2</v>
-      </c>
-      <c r="CM27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN27" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:79">
       <c r="AS28" s="17">
         <v>9</v>
       </c>
@@ -3766,73 +3118,19 @@
         <v>0</v>
       </c>
       <c r="BX28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BZ28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB28" s="1">
-        <v>1</v>
-      </c>
-      <c r="CC28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD28" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF28" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH28" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ28" s="1">
-        <v>1</v>
-      </c>
-      <c r="CK28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL28" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN28" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:79">
       <c r="AS29" s="17">
         <v>10</v>
       </c>
@@ -3925,74 +3223,20 @@
         <v>0</v>
       </c>
       <c r="BX29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BZ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB29" s="1">
-        <v>1</v>
-      </c>
-      <c r="CC29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD29" s="1">
-        <v>1</v>
-      </c>
-      <c r="CE29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF29" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH29" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ29" s="1">
-        <v>1</v>
-      </c>
-      <c r="CK29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL29" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN29" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR29" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS29" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="36">
     <mergeCell ref="AS27:AT27"/>
     <mergeCell ref="AS28:AT28"/>
     <mergeCell ref="AS29:AT29"/>
@@ -4008,24 +3252,15 @@
     <mergeCell ref="AS16:AT16"/>
     <mergeCell ref="AS17:AT17"/>
     <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="CR7:CS7"/>
     <mergeCell ref="AS8:AT8"/>
     <mergeCell ref="AS9:AT9"/>
     <mergeCell ref="AS10:AT10"/>
     <mergeCell ref="AS11:AT11"/>
     <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="CP7:CQ7"/>
     <mergeCell ref="BT7:BU7"/>
     <mergeCell ref="BV7:BW7"/>
     <mergeCell ref="BX7:BY7"/>
     <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CD7:CE7"/>
     <mergeCell ref="BH7:BI7"/>
     <mergeCell ref="BJ7:BK7"/>
     <mergeCell ref="BL7:BM7"/>

--- a/arkanoid.xlsx
+++ b/arkanoid.xlsx
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +198,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -395,14 +398,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -413,8 +416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="952500"/>
-          <a:ext cx="9153525" cy="361950"/>
+          <a:off x="1504950" y="952500"/>
+          <a:ext cx="11010900" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -744,7 +747,7 @@
   <dimension ref="D3:BR20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="AL27" sqref="AL27:AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1059,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:CA29"/>
+  <dimension ref="D2:CA29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CK26" sqref="CK26"/>
+      <selection activeCell="CD13" sqref="CD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
@@ -1073,6 +1076,20 @@
     <col min="71" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="4:79">
+      <c r="AW2" s="16">
+        <v>50</v>
+      </c>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BC2" s="16">
+        <v>20</v>
+      </c>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+    </row>
     <row r="3" spans="4:79" ht="15" customHeight="1">
       <c r="E3" s="1">
         <v>0</v>
@@ -1182,16 +1199,16 @@
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="16"/>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
@@ -1353,70 +1370,70 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
-      <c r="AV7" s="16">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="16">
-        <v>2</v>
-      </c>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16">
-        <v>3</v>
-      </c>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16">
+      <c r="AV7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17">
+        <v>2</v>
+      </c>
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17">
+        <v>3</v>
+      </c>
+      <c r="BC7" s="17"/>
+      <c r="BD7" s="17">
         <v>4</v>
       </c>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="16">
+      <c r="BE7" s="17"/>
+      <c r="BF7" s="17">
         <v>5</v>
       </c>
-      <c r="BE7" s="16"/>
-      <c r="BF7" s="16">
+      <c r="BG7" s="17"/>
+      <c r="BH7" s="17">
         <v>6</v>
       </c>
-      <c r="BG7" s="16"/>
-      <c r="BH7" s="16">
+      <c r="BI7" s="17"/>
+      <c r="BJ7" s="17">
         <v>7</v>
       </c>
-      <c r="BI7" s="16"/>
-      <c r="BJ7" s="16">
+      <c r="BK7" s="17"/>
+      <c r="BL7" s="17">
         <v>8</v>
       </c>
-      <c r="BK7" s="16"/>
-      <c r="BL7" s="16">
+      <c r="BM7" s="17"/>
+      <c r="BN7" s="17">
         <v>9</v>
       </c>
-      <c r="BM7" s="16"/>
-      <c r="BN7" s="16">
+      <c r="BO7" s="17"/>
+      <c r="BP7" s="17">
         <v>10</v>
       </c>
-      <c r="BO7" s="16"/>
-      <c r="BP7" s="16">
+      <c r="BQ7" s="17"/>
+      <c r="BR7" s="17">
         <v>11</v>
       </c>
-      <c r="BQ7" s="16"/>
-      <c r="BR7" s="16">
+      <c r="BS7" s="17"/>
+      <c r="BT7" s="17">
         <v>12</v>
       </c>
-      <c r="BS7" s="16"/>
-      <c r="BT7" s="16">
+      <c r="BU7" s="17"/>
+      <c r="BV7" s="17">
         <v>13</v>
       </c>
-      <c r="BU7" s="16"/>
-      <c r="BV7" s="16">
+      <c r="BW7" s="17"/>
+      <c r="BX7" s="17">
         <v>14</v>
       </c>
-      <c r="BW7" s="16"/>
-      <c r="BX7" s="16">
+      <c r="BY7" s="17"/>
+      <c r="BZ7" s="17">
         <v>15</v>
       </c>
-      <c r="BY7" s="16"/>
-      <c r="BZ7" s="16">
-        <v>16</v>
-      </c>
-      <c r="CA7" s="16"/>
+      <c r="CA7" s="17"/>
     </row>
     <row r="8" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D8" s="4">
@@ -1454,11 +1471,11 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
-      <c r="AS8" s="17">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="18"/>
+      <c r="AS8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="19"/>
       <c r="AV8" s="8"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="8"/>
@@ -1528,11 +1545,11 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
-      <c r="AS9" s="17">
-        <v>2</v>
-      </c>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="18"/>
+      <c r="AS9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="19"/>
       <c r="AV9" s="8"/>
       <c r="AW9" s="9"/>
       <c r="AX9" s="8"/>
@@ -1602,11 +1619,11 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
-      <c r="AS10" s="17">
-        <v>3</v>
-      </c>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="18"/>
+      <c r="AS10" s="18">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="19"/>
       <c r="AX10" s="8"/>
       <c r="AY10" s="9"/>
       <c r="AZ10" s="10"/>
@@ -1672,11 +1689,11 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
-      <c r="AS11" s="17">
-        <v>4</v>
-      </c>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="18"/>
+      <c r="AS11" s="18">
+        <v>3</v>
+      </c>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="19"/>
       <c r="AX11" s="8"/>
       <c r="AY11" s="9"/>
       <c r="AZ11" s="10"/>
@@ -1742,11 +1759,11 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
-      <c r="AS12" s="17">
-        <v>5</v>
-      </c>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="18"/>
+      <c r="AS12" s="18">
+        <v>4</v>
+      </c>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="19"/>
       <c r="AX12" s="8"/>
       <c r="AY12" s="9"/>
       <c r="AZ12" s="10"/>
@@ -1812,11 +1829,11 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
-      <c r="AS13" s="17">
-        <v>6</v>
-      </c>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="18"/>
+      <c r="AS13" s="18">
+        <v>5</v>
+      </c>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="19"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="9"/>
       <c r="AZ13" s="10"/>
@@ -1882,11 +1899,11 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
-      <c r="AS14" s="17">
-        <v>7</v>
-      </c>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="18"/>
+      <c r="AS14" s="18">
+        <v>6</v>
+      </c>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="19"/>
       <c r="AZ14" s="8"/>
       <c r="BA14" s="9"/>
       <c r="BB14" s="10"/>
@@ -1948,11 +1965,11 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
-      <c r="AS15" s="17">
-        <v>8</v>
-      </c>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="18"/>
+      <c r="AS15" s="18">
+        <v>7</v>
+      </c>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="19"/>
       <c r="AZ15" s="8"/>
       <c r="BA15" s="9"/>
       <c r="BB15" s="10"/>
@@ -2014,11 +2031,11 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
-      <c r="AS16" s="17">
-        <v>9</v>
-      </c>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="18"/>
+      <c r="AS16" s="18">
+        <v>8</v>
+      </c>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="19"/>
       <c r="AZ16" s="8"/>
       <c r="BA16" s="9"/>
       <c r="BB16" s="8"/>
@@ -2080,11 +2097,11 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
-      <c r="AS17" s="17">
-        <v>10</v>
-      </c>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="18"/>
+      <c r="AS17" s="18">
+        <v>9</v>
+      </c>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="19"/>
       <c r="AZ17" s="8"/>
       <c r="BA17" s="9"/>
       <c r="BB17" s="8"/>
@@ -2186,11 +2203,11 @@
     </row>
     <row r="20" spans="4:79" ht="15" customHeight="1">
       <c r="E20" s="2"/>
-      <c r="AS20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="18" t="s">
+      <c r="AS20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="19" t="s">
         <v>1</v>
       </c>
       <c r="AV20" s="1">
@@ -2291,11 +2308,11 @@
       </c>
     </row>
     <row r="21" spans="4:79">
-      <c r="AS21" s="17">
-        <v>2</v>
-      </c>
-      <c r="AT21" s="17"/>
-      <c r="AU21" s="18" t="s">
+      <c r="AS21" s="18">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="19" t="s">
         <v>1</v>
       </c>
       <c r="AV21" s="1">
@@ -2396,11 +2413,11 @@
       </c>
     </row>
     <row r="22" spans="4:79">
-      <c r="AS22" s="17">
-        <v>3</v>
-      </c>
-      <c r="AT22" s="17"/>
-      <c r="AU22" s="18" t="s">
+      <c r="AS22" s="18">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="19" t="s">
         <v>1</v>
       </c>
       <c r="AV22" s="1">
@@ -2501,11 +2518,11 @@
       </c>
     </row>
     <row r="23" spans="4:79">
-      <c r="AS23" s="17">
+      <c r="AS23" s="18">
         <v>4</v>
       </c>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="18" t="s">
+      <c r="AT23" s="18"/>
+      <c r="AU23" s="19" t="s">
         <v>1</v>
       </c>
       <c r="AV23" s="1">
@@ -2606,11 +2623,11 @@
       </c>
     </row>
     <row r="24" spans="4:79">
-      <c r="AS24" s="17">
+      <c r="AS24" s="18">
         <v>5</v>
       </c>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="18" t="s">
+      <c r="AT24" s="18"/>
+      <c r="AU24" s="19" t="s">
         <v>1</v>
       </c>
       <c r="AV24" s="1">
@@ -2711,11 +2728,11 @@
       </c>
     </row>
     <row r="25" spans="4:79">
-      <c r="AS25" s="17">
+      <c r="AS25" s="18">
         <v>6</v>
       </c>
-      <c r="AT25" s="17"/>
-      <c r="AU25" s="18" t="s">
+      <c r="AT25" s="18"/>
+      <c r="AU25" s="19" t="s">
         <v>1</v>
       </c>
       <c r="AV25" s="1">
@@ -2816,11 +2833,11 @@
       </c>
     </row>
     <row r="26" spans="4:79">
-      <c r="AS26" s="17">
+      <c r="AS26" s="18">
         <v>7</v>
       </c>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="18" t="s">
+      <c r="AT26" s="18"/>
+      <c r="AU26" s="19" t="s">
         <v>1</v>
       </c>
       <c r="AV26" s="1">
@@ -2921,11 +2938,11 @@
       </c>
     </row>
     <row r="27" spans="4:79">
-      <c r="AS27" s="17">
+      <c r="AS27" s="18">
         <v>8</v>
       </c>
-      <c r="AT27" s="17"/>
-      <c r="AU27" s="18" t="s">
+      <c r="AT27" s="18"/>
+      <c r="AU27" s="19" t="s">
         <v>1</v>
       </c>
       <c r="AV27" s="1">
@@ -3026,11 +3043,11 @@
       </c>
     </row>
     <row r="28" spans="4:79">
-      <c r="AS28" s="17">
+      <c r="AS28" s="18">
         <v>9</v>
       </c>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="18" t="s">
+      <c r="AT28" s="18"/>
+      <c r="AU28" s="19" t="s">
         <v>1</v>
       </c>
       <c r="AV28" s="1">
@@ -3131,11 +3148,11 @@
       </c>
     </row>
     <row r="29" spans="4:79">
-      <c r="AS29" s="17">
+      <c r="AS29" s="18">
         <v>10</v>
       </c>
-      <c r="AT29" s="17"/>
-      <c r="AU29" s="18" t="s">
+      <c r="AT29" s="18"/>
+      <c r="AU29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="AV29" s="1">
@@ -3236,10 +3253,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
     <mergeCell ref="AS27:AT27"/>
     <mergeCell ref="AS28:AT28"/>
     <mergeCell ref="AS29:AT29"/>
+    <mergeCell ref="AW2:AZ3"/>
+    <mergeCell ref="BC2:BF3"/>
     <mergeCell ref="AS21:AT21"/>
     <mergeCell ref="AS22:AT22"/>
     <mergeCell ref="AS23:AT23"/>

--- a/arkanoid.xlsx
+++ b/arkanoid.xlsx
@@ -200,28 +200,54 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF669900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
+      <color rgb="FF669900"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1065,7 +1091,7 @@
   <dimension ref="D2:CA29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CD13" sqref="CD13"/>
+      <selection activeCell="CG22" sqref="CG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
@@ -1073,22 +1099,24 @@
     <col min="1" max="3" width="2.85546875" style="1"/>
     <col min="4" max="4" width="3" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="70" width="2.85546875" style="1" customWidth="1"/>
-    <col min="71" max="16384" width="2.85546875" style="1"/>
+    <col min="71" max="71" width="2.85546875" style="1"/>
+    <col min="72" max="72" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:79">
-      <c r="AW2" s="16">
+      <c r="AW2" s="18">
         <v>50</v>
       </c>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BC2" s="16">
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BC2" s="18">
         <v>20</v>
       </c>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="16"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
     </row>
     <row r="3" spans="4:79" ht="15" customHeight="1">
       <c r="E3" s="1">
@@ -1199,16 +1227,16 @@
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="16"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="16"/>
-      <c r="BE3" s="16"/>
-      <c r="BF3" s="16"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
@@ -1370,70 +1398,70 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
-      <c r="AV7" s="17">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17">
+      <c r="AV7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19">
         <v>1</v>
       </c>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17">
-        <v>2</v>
-      </c>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17">
-        <v>3</v>
-      </c>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17">
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="19">
+        <v>2</v>
+      </c>
+      <c r="BA7" s="19"/>
+      <c r="BB7" s="19">
+        <v>3</v>
+      </c>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="19">
         <v>4</v>
       </c>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17">
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="19">
         <v>5</v>
       </c>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17">
+      <c r="BG7" s="19"/>
+      <c r="BH7" s="19">
         <v>6</v>
       </c>
-      <c r="BI7" s="17"/>
-      <c r="BJ7" s="17">
+      <c r="BI7" s="19"/>
+      <c r="BJ7" s="19">
         <v>7</v>
       </c>
-      <c r="BK7" s="17"/>
-      <c r="BL7" s="17">
+      <c r="BK7" s="19"/>
+      <c r="BL7" s="19">
         <v>8</v>
       </c>
-      <c r="BM7" s="17"/>
-      <c r="BN7" s="17">
+      <c r="BM7" s="19"/>
+      <c r="BN7" s="19">
         <v>9</v>
       </c>
-      <c r="BO7" s="17"/>
-      <c r="BP7" s="17">
+      <c r="BO7" s="19"/>
+      <c r="BP7" s="19">
         <v>10</v>
       </c>
-      <c r="BQ7" s="17"/>
-      <c r="BR7" s="17">
+      <c r="BQ7" s="19"/>
+      <c r="BR7" s="19">
         <v>11</v>
       </c>
-      <c r="BS7" s="17"/>
-      <c r="BT7" s="17">
+      <c r="BS7" s="19"/>
+      <c r="BT7" s="19">
         <v>12</v>
       </c>
-      <c r="BU7" s="17"/>
-      <c r="BV7" s="17">
+      <c r="BU7" s="19"/>
+      <c r="BV7" s="19">
         <v>13</v>
       </c>
-      <c r="BW7" s="17"/>
-      <c r="BX7" s="17">
+      <c r="BW7" s="19"/>
+      <c r="BX7" s="19">
         <v>14</v>
       </c>
-      <c r="BY7" s="17"/>
-      <c r="BZ7" s="17">
+      <c r="BY7" s="19"/>
+      <c r="BZ7" s="19">
         <v>15</v>
       </c>
-      <c r="CA7" s="17"/>
+      <c r="CA7" s="19"/>
     </row>
     <row r="8" spans="4:79" ht="15" customHeight="1" thickBot="1">
       <c r="D8" s="4">
@@ -1471,11 +1499,11 @@
       <c r="AH8" s="5"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
-      <c r="AS8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="18"/>
-      <c r="AU8" s="19"/>
+      <c r="AS8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="17"/>
+      <c r="AU8" s="16"/>
       <c r="AV8" s="8"/>
       <c r="AW8" s="9"/>
       <c r="AX8" s="8"/>
@@ -1545,11 +1573,11 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
-      <c r="AS9" s="18">
+      <c r="AS9" s="17">
         <v>1</v>
       </c>
-      <c r="AT9" s="18"/>
-      <c r="AU9" s="19"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="16"/>
       <c r="AV9" s="8"/>
       <c r="AW9" s="9"/>
       <c r="AX9" s="8"/>
@@ -1619,11 +1647,11 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
-      <c r="AS10" s="18">
-        <v>2</v>
-      </c>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="19"/>
+      <c r="AS10" s="17">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="16"/>
       <c r="AX10" s="8"/>
       <c r="AY10" s="9"/>
       <c r="AZ10" s="10"/>
@@ -1689,11 +1717,11 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
-      <c r="AS11" s="18">
-        <v>3</v>
-      </c>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="19"/>
+      <c r="AS11" s="17">
+        <v>3</v>
+      </c>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="16"/>
       <c r="AX11" s="8"/>
       <c r="AY11" s="9"/>
       <c r="AZ11" s="10"/>
@@ -1759,11 +1787,11 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
-      <c r="AS12" s="18">
+      <c r="AS12" s="17">
         <v>4</v>
       </c>
-      <c r="AT12" s="18"/>
-      <c r="AU12" s="19"/>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="16"/>
       <c r="AX12" s="8"/>
       <c r="AY12" s="9"/>
       <c r="AZ12" s="10"/>
@@ -1829,11 +1857,11 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
-      <c r="AS13" s="18">
+      <c r="AS13" s="17">
         <v>5</v>
       </c>
-      <c r="AT13" s="18"/>
-      <c r="AU13" s="19"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="16"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="9"/>
       <c r="AZ13" s="10"/>
@@ -1899,11 +1927,11 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
-      <c r="AS14" s="18">
+      <c r="AS14" s="17">
         <v>6</v>
       </c>
-      <c r="AT14" s="18"/>
-      <c r="AU14" s="19"/>
+      <c r="AT14" s="17"/>
+      <c r="AU14" s="16"/>
       <c r="AZ14" s="8"/>
       <c r="BA14" s="9"/>
       <c r="BB14" s="10"/>
@@ -1965,11 +1993,11 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
-      <c r="AS15" s="18">
+      <c r="AS15" s="17">
         <v>7</v>
       </c>
-      <c r="AT15" s="18"/>
-      <c r="AU15" s="19"/>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="16"/>
       <c r="AZ15" s="8"/>
       <c r="BA15" s="9"/>
       <c r="BB15" s="10"/>
@@ -2031,11 +2059,11 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
-      <c r="AS16" s="18">
+      <c r="AS16" s="17">
         <v>8</v>
       </c>
-      <c r="AT16" s="18"/>
-      <c r="AU16" s="19"/>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="16"/>
       <c r="AZ16" s="8"/>
       <c r="BA16" s="9"/>
       <c r="BB16" s="8"/>
@@ -2097,11 +2125,11 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
-      <c r="AS17" s="18">
+      <c r="AS17" s="17">
         <v>9</v>
       </c>
-      <c r="AT17" s="18"/>
-      <c r="AU17" s="19"/>
+      <c r="AT17" s="17"/>
+      <c r="AU17" s="16"/>
       <c r="AZ17" s="8"/>
       <c r="BA17" s="9"/>
       <c r="BB17" s="8"/>
@@ -2203,612 +2231,612 @@
     </row>
     <row r="20" spans="4:79" ht="15" customHeight="1">
       <c r="E20" s="2"/>
-      <c r="AS20" s="18">
+      <c r="AS20" s="17">
         <v>1</v>
       </c>
-      <c r="AT20" s="18"/>
-      <c r="AU20" s="19" t="s">
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="16" t="s">
         <v>1</v>
       </c>
       <c r="AV20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:79">
+      <c r="AS21" s="17">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AW20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="1">
+      <c r="AV21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:79">
+      <c r="AS22" s="17">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AY20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BE20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BG20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BI20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BM20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BO20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BQ20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BS20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BU20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV20" s="1">
-        <v>2</v>
-      </c>
-      <c r="BW20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX20" s="1">
+      <c r="AV22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:79">
+      <c r="AS23" s="17">
+        <v>4</v>
+      </c>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="BY20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ20" s="1">
+      <c r="AV23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:79">
+      <c r="AS24" s="17">
+        <v>5</v>
+      </c>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="CA20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:79">
-      <c r="AS21" s="18">
-        <v>2</v>
-      </c>
-      <c r="AT21" s="18"/>
-      <c r="AU21" s="19" t="s">
+      <c r="AV24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="1">
         <v>1</v>
       </c>
-      <c r="AV21" s="1">
+      <c r="BE24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="1">
         <v>1</v>
       </c>
-      <c r="AW21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="1">
+      <c r="BG24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="1">
         <v>1</v>
       </c>
-      <c r="AY21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="1">
-        <v>3</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="1">
-        <v>3</v>
-      </c>
-      <c r="BE21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF21" s="1">
-        <v>3</v>
-      </c>
-      <c r="BG21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH21" s="1">
-        <v>3</v>
-      </c>
-      <c r="BI21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL21" s="1">
-        <v>3</v>
-      </c>
-      <c r="BM21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN21" s="1">
-        <v>3</v>
-      </c>
-      <c r="BO21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP21" s="1">
-        <v>3</v>
-      </c>
-      <c r="BQ21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR21" s="1">
-        <v>3</v>
-      </c>
-      <c r="BS21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT21" s="1">
-        <v>3</v>
-      </c>
-      <c r="BU21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV21" s="1">
-        <v>2</v>
-      </c>
-      <c r="BW21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX21" s="1">
+      <c r="BI24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="1">
         <v>1</v>
       </c>
-      <c r="BY21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ21" s="1">
+      <c r="BK24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL24" s="1">
         <v>1</v>
       </c>
-      <c r="CA21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:79">
-      <c r="AS22" s="18">
-        <v>3</v>
-      </c>
-      <c r="AT22" s="18"/>
-      <c r="AU22" s="19" t="s">
+      <c r="BM24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="1">
         <v>1</v>
       </c>
-      <c r="AV22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="1">
+      <c r="BO24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="1">
         <v>1</v>
       </c>
-      <c r="AY22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="1">
-        <v>3</v>
-      </c>
-      <c r="BC22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="1">
-        <v>3</v>
-      </c>
-      <c r="BE22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="1">
-        <v>3</v>
-      </c>
-      <c r="BG22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH22" s="1">
-        <v>3</v>
-      </c>
-      <c r="BI22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL22" s="1">
-        <v>3</v>
-      </c>
-      <c r="BM22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN22" s="1">
-        <v>3</v>
-      </c>
-      <c r="BO22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP22" s="1">
-        <v>3</v>
-      </c>
-      <c r="BQ22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR22" s="1">
-        <v>3</v>
-      </c>
-      <c r="BS22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT22" s="1">
-        <v>3</v>
-      </c>
-      <c r="BU22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV22" s="1">
-        <v>2</v>
-      </c>
-      <c r="BW22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX22" s="1">
+      <c r="BQ24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="1">
         <v>1</v>
       </c>
-      <c r="BY22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="4:79">
-      <c r="AS23" s="18">
-        <v>4</v>
-      </c>
-      <c r="AT23" s="18"/>
-      <c r="AU23" s="19" t="s">
+      <c r="BS24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:79">
+      <c r="AS25" s="17">
+        <v>6</v>
+      </c>
+      <c r="AT25" s="17"/>
+      <c r="AU25" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AV23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="1">
+      <c r="AV25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="1">
         <v>1</v>
       </c>
-      <c r="AY23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="1">
-        <v>3</v>
-      </c>
-      <c r="BC23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD23" s="1">
-        <v>3</v>
-      </c>
-      <c r="BE23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF23" s="1">
-        <v>3</v>
-      </c>
-      <c r="BG23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH23" s="1">
-        <v>3</v>
-      </c>
-      <c r="BI23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL23" s="1">
-        <v>3</v>
-      </c>
-      <c r="BM23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN23" s="1">
-        <v>3</v>
-      </c>
-      <c r="BO23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP23" s="1">
-        <v>3</v>
-      </c>
-      <c r="BQ23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR23" s="1">
-        <v>3</v>
-      </c>
-      <c r="BS23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT23" s="1">
-        <v>3</v>
-      </c>
-      <c r="BU23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV23" s="1">
-        <v>2</v>
-      </c>
-      <c r="BW23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX23" s="1">
+      <c r="BE25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="1">
         <v>1</v>
       </c>
-      <c r="BY23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:79">
-      <c r="AS24" s="18">
-        <v>5</v>
-      </c>
-      <c r="AT24" s="18"/>
-      <c r="AU24" s="19" t="s">
+      <c r="BG25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="1">
         <v>1</v>
       </c>
-      <c r="AV24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="1">
+      <c r="BI25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="1">
         <v>1</v>
       </c>
-      <c r="AY24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="1">
-        <v>3</v>
-      </c>
-      <c r="BC24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="1">
-        <v>3</v>
-      </c>
-      <c r="BE24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF24" s="1">
-        <v>3</v>
-      </c>
-      <c r="BG24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH24" s="1">
-        <v>3</v>
-      </c>
-      <c r="BI24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL24" s="1">
-        <v>3</v>
-      </c>
-      <c r="BM24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN24" s="1">
-        <v>3</v>
-      </c>
-      <c r="BO24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP24" s="1">
-        <v>3</v>
-      </c>
-      <c r="BQ24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR24" s="1">
-        <v>3</v>
-      </c>
-      <c r="BS24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT24" s="1">
-        <v>3</v>
-      </c>
-      <c r="BU24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV24" s="1">
-        <v>2</v>
-      </c>
-      <c r="BW24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX24" s="1">
+      <c r="BK25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="1">
         <v>1</v>
       </c>
-      <c r="BY24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:79">
-      <c r="AS25" s="18">
-        <v>6</v>
-      </c>
-      <c r="AT25" s="18"/>
-      <c r="AU25" s="19" t="s">
+      <c r="BM25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="1">
         <v>1</v>
       </c>
-      <c r="AV25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="1">
+      <c r="BO25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="1">
         <v>1</v>
       </c>
-      <c r="AY25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="1">
-        <v>3</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="1">
-        <v>3</v>
-      </c>
-      <c r="BE25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF25" s="1">
-        <v>3</v>
-      </c>
-      <c r="BG25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH25" s="1">
-        <v>3</v>
-      </c>
-      <c r="BI25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL25" s="1">
-        <v>3</v>
-      </c>
-      <c r="BM25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN25" s="1">
-        <v>3</v>
-      </c>
-      <c r="BO25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP25" s="1">
-        <v>3</v>
-      </c>
       <c r="BQ25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BR25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BS25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BT25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU25" s="1" t="s">
         <v>0</v>
@@ -2820,341 +2848,341 @@
         <v>0</v>
       </c>
       <c r="BX25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:79">
+      <c r="AS26" s="17">
+        <v>7</v>
+      </c>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="BY25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:79">
-      <c r="AS26" s="18">
-        <v>7</v>
-      </c>
-      <c r="AT26" s="18"/>
-      <c r="AU26" s="19" t="s">
+      <c r="AV26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:79">
+      <c r="AS27" s="17">
+        <v>8</v>
+      </c>
+      <c r="AT27" s="17"/>
+      <c r="AU27" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AV26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="1">
+      <c r="AV27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:79">
+      <c r="AS28" s="17">
+        <v>9</v>
+      </c>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="BA26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BE26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BG26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BK26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BM26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BQ26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BS26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BU26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV26" s="1">
+      <c r="AV28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:79">
+      <c r="AS29" s="17">
+        <v>10</v>
+      </c>
+      <c r="AT29" s="17"/>
+      <c r="AU29" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="BW26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX26" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA26" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:79">
-      <c r="AS27" s="18">
-        <v>8</v>
-      </c>
-      <c r="AT27" s="18"/>
-      <c r="AU27" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD27" s="1">
-        <v>2</v>
-      </c>
-      <c r="BE27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF27" s="1">
-        <v>2</v>
-      </c>
-      <c r="BG27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH27" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="1">
-        <v>2</v>
-      </c>
-      <c r="BK27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL27" s="1">
-        <v>2</v>
-      </c>
-      <c r="BM27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN27" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP27" s="1">
-        <v>2</v>
-      </c>
-      <c r="BQ27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR27" s="1">
-        <v>2</v>
-      </c>
-      <c r="BS27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT27" s="1">
-        <v>2</v>
-      </c>
-      <c r="BU27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV27" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:79">
-      <c r="AS28" s="18">
-        <v>9</v>
-      </c>
-      <c r="AT28" s="18"/>
-      <c r="AU28" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BU28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BW28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX28" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ28" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:79">
-      <c r="AS29" s="18">
-        <v>10</v>
-      </c>
-      <c r="AT29" s="18"/>
-      <c r="AU29" s="19" t="s">
-        <v>1</v>
-      </c>
       <c r="AV29" s="1">
         <v>0</v>
       </c>
@@ -3168,73 +3196,73 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BB29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BD29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BF29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BH29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BJ29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BL29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BN29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BP29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BQ29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BR29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BT29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BV29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW29" s="1" t="s">
         <v>0</v>
@@ -3254,6 +3282,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="BF7:BG7"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BB7:BC7"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="BH7:BI7"/>
+    <mergeCell ref="BJ7:BK7"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AS12:AT12"/>
     <mergeCell ref="AS27:AT27"/>
     <mergeCell ref="AS28:AT28"/>
     <mergeCell ref="AS29:AT29"/>
@@ -3270,29 +3320,18 @@
     <mergeCell ref="AS15:AT15"/>
     <mergeCell ref="AS16:AT16"/>
     <mergeCell ref="AS17:AT17"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="BH7:BI7"/>
-    <mergeCell ref="BJ7:BK7"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BB7:BC7"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BF7:BG7"/>
   </mergeCells>
+  <conditionalFormatting sqref="AU20:CA29">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
